--- a/结果/DT分类/标准差/DT_CE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_CE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0581D37C-9F89-4644-A497-ECAC807E2AE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5483B4C-1226-499F-8BC9-D3FED0307D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="8388" yWindow="2748" windowWidth="19668" windowHeight="9708" tabRatio="849" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C38"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -428,6 +428,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>98.75</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>97.530900000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>97.5</v>
+      </c>
+      <c r="B6">
+        <v>98.780500000000004</v>
+      </c>
+      <c r="C6">
+        <v>96.153800000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>96.875</v>
+      </c>
+      <c r="B8">
+        <v>97.468400000000003</v>
+      </c>
+      <c r="C8">
+        <v>96.296300000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>96.875</v>
+      </c>
+      <c r="B10">
+        <v>94.805199999999999</v>
+      </c>
+      <c r="C10">
+        <v>98.795199999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.125</v>
+      </c>
+      <c r="B15">
+        <v>97.468400000000003</v>
+      </c>
+      <c r="C15">
+        <v>98.7654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>97.5</v>
+      </c>
+      <c r="B17">
+        <v>96.385499999999993</v>
+      </c>
+      <c r="C17">
+        <v>98.701300000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>97.5</v>
+      </c>
+      <c r="B19">
+        <v>98.684200000000004</v>
+      </c>
+      <c r="C19">
+        <v>96.428600000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>97.5</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>95.061700000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>97.5</v>
+      </c>
+      <c r="B23">
+        <v>96.385499999999993</v>
+      </c>
+      <c r="C23">
+        <v>98.701300000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>98.125</v>
+      </c>
+      <c r="B28">
+        <v>97.674400000000006</v>
+      </c>
+      <c r="C28">
+        <v>98.648600000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>98.125</v>
+      </c>
+      <c r="B30">
+        <v>97.468400000000003</v>
+      </c>
+      <c r="C30">
+        <v>98.7654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <v>93.827200000000005</v>
+      </c>
+      <c r="C32">
+        <v>96.202500000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>98.75</v>
+      </c>
+      <c r="B34">
+        <v>97.435900000000004</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>98.125</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>96.428600000000003</v>
       </c>
     </row>
   </sheetData>
@@ -439,10 +604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9319EEC-FC5B-42B7-97A3-3194FA6A3761}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C37"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,6 +621,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>82.5</v>
+      </c>
+      <c r="B2">
+        <v>75.581400000000002</v>
+      </c>
+      <c r="C2">
+        <v>90.540499999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>93.827200000000005</v>
+      </c>
+      <c r="C4">
+        <v>75.949399999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>88.125</v>
+      </c>
+      <c r="B6">
+        <v>87.837800000000001</v>
+      </c>
+      <c r="C6">
+        <v>88.372100000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>81.875</v>
+      </c>
+      <c r="B8">
+        <v>85.333299999999994</v>
+      </c>
+      <c r="C8">
+        <v>78.823499999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>87.5</v>
+      </c>
+      <c r="B10">
+        <v>88.095200000000006</v>
+      </c>
+      <c r="C10">
+        <v>86.842100000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>85.625</v>
+      </c>
+      <c r="B15">
+        <v>83.908000000000001</v>
+      </c>
+      <c r="C15">
+        <v>87.671199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <v>81.111099999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>83.125</v>
+      </c>
+      <c r="B19">
+        <v>82.9268</v>
+      </c>
+      <c r="C19">
+        <v>83.333299999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>87.5</v>
+      </c>
+      <c r="B21">
+        <v>88.888900000000007</v>
+      </c>
+      <c r="C21">
+        <v>85.714299999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>80</v>
+      </c>
+      <c r="B23">
+        <v>83.098600000000005</v>
+      </c>
+      <c r="C23">
+        <v>77.528099999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>84.375</v>
+      </c>
+      <c r="B28">
+        <v>90.411000000000001</v>
+      </c>
+      <c r="C28">
+        <v>79.310299999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>82.5</v>
+      </c>
+      <c r="B30">
+        <v>79.487200000000001</v>
+      </c>
+      <c r="C30">
+        <v>85.365899999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>87.5</v>
+      </c>
+      <c r="B32">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>84.285700000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>85</v>
+      </c>
+      <c r="B34">
+        <v>88.157899999999998</v>
+      </c>
+      <c r="C34">
+        <v>82.142899999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>80</v>
+      </c>
+      <c r="B36">
+        <v>79.518100000000004</v>
+      </c>
+      <c r="C36">
+        <v>80.519499999999994</v>
       </c>
     </row>
   </sheetData>
@@ -466,10 +796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7F7D7-6C88-456C-AC53-5A54ACE8E261}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C36"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +813,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>95.2941</v>
+      </c>
+      <c r="C2">
+        <v>94.666700000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>93.125</v>
+      </c>
+      <c r="B4">
+        <v>93.9024</v>
+      </c>
+      <c r="C4">
+        <v>92.307699999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>93.125</v>
+      </c>
+      <c r="B6">
+        <v>92.307699999999997</v>
+      </c>
+      <c r="C6">
+        <v>93.9024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>93.75</v>
+      </c>
+      <c r="B8">
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>98.75</v>
+      </c>
+      <c r="B10">
+        <v>97.333299999999994</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>92.5</v>
+      </c>
+      <c r="B15">
+        <v>91.358000000000004</v>
+      </c>
+      <c r="C15">
+        <v>93.670900000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>94.375</v>
+      </c>
+      <c r="B17">
+        <v>95.180700000000002</v>
+      </c>
+      <c r="C17">
+        <v>93.506500000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>95.625</v>
+      </c>
+      <c r="B19">
+        <v>95.774600000000007</v>
+      </c>
+      <c r="C19">
+        <v>95.505600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>96.875</v>
+      </c>
+      <c r="B21">
+        <v>97.297300000000007</v>
+      </c>
+      <c r="C21">
+        <v>96.511600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>92.307699999999997</v>
+      </c>
+      <c r="C23">
+        <v>98.550700000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>93.125</v>
+      </c>
+      <c r="B28">
+        <v>91.111099999999993</v>
+      </c>
+      <c r="C28">
+        <v>95.714299999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>96.25</v>
+      </c>
+      <c r="B30">
+        <v>96.385499999999993</v>
+      </c>
+      <c r="C30">
+        <v>96.103899999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>93.125</v>
+      </c>
+      <c r="B32">
+        <v>89.610399999999998</v>
+      </c>
+      <c r="C32">
+        <v>96.385499999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>96.875</v>
+      </c>
+      <c r="B34">
+        <v>98.550700000000006</v>
+      </c>
+      <c r="C34">
+        <v>95.604399999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>98.125</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>96.202500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -493,10 +988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E91D24-0621-4254-96BD-9D175D9C7867}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C37"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,6 +1005,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>97.5</v>
+      </c>
+      <c r="B2">
+        <v>96.341499999999996</v>
+      </c>
+      <c r="C2">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>99.375</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>98.837199999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>96.875</v>
+      </c>
+      <c r="B6">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="C6">
+        <v>96.153800000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>96.875</v>
+      </c>
+      <c r="B8">
+        <v>96.153800000000004</v>
+      </c>
+      <c r="C8">
+        <v>97.561000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>98.75</v>
+      </c>
+      <c r="B10">
+        <v>97.619</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>96.25</v>
+      </c>
+      <c r="B15">
+        <v>98.648600000000002</v>
+      </c>
+      <c r="C15">
+        <v>94.186000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>99.375</v>
+      </c>
+      <c r="B17">
+        <v>98.701300000000003</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>96.25</v>
+      </c>
+      <c r="B19">
+        <v>93.9024</v>
+      </c>
+      <c r="C19">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>95.625</v>
+      </c>
+      <c r="B21">
+        <v>97.619</v>
+      </c>
+      <c r="C21">
+        <v>93.421099999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98.75</v>
+      </c>
+      <c r="B23">
+        <v>97.590400000000002</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>99.375</v>
+      </c>
+      <c r="B28">
+        <v>98.648600000000002</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>96.875</v>
+      </c>
+      <c r="B30">
+        <v>95.8904</v>
+      </c>
+      <c r="C30">
+        <v>97.701099999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>98.125</v>
+      </c>
+      <c r="B32">
+        <v>98.7654</v>
+      </c>
+      <c r="C32">
+        <v>97.468400000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>97.5</v>
+      </c>
+      <c r="B34">
+        <v>97.619</v>
+      </c>
+      <c r="C34">
+        <v>97.368399999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>95.625</v>
+      </c>
+      <c r="B36">
+        <v>95.454499999999996</v>
+      </c>
+      <c r="C36">
+        <v>95.833299999999994</v>
       </c>
     </row>
   </sheetData>
@@ -521,10 +1181,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB994B57-1C4E-4D69-B806-02229C37A3D5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C37"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,6 +1198,171 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>98.75</v>
+      </c>
+      <c r="B2">
+        <v>97.561000000000007</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>93.75</v>
+      </c>
+      <c r="B4">
+        <v>93.181799999999996</v>
+      </c>
+      <c r="C4">
+        <v>94.444400000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>95.625</v>
+      </c>
+      <c r="B6">
+        <v>95.945899999999995</v>
+      </c>
+      <c r="C6">
+        <v>95.348799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>96.875</v>
+      </c>
+      <c r="B8">
+        <v>98.701300000000003</v>
+      </c>
+      <c r="C8">
+        <v>95.180700000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>98.125</v>
+      </c>
+      <c r="B10">
+        <v>98.734200000000001</v>
+      </c>
+      <c r="C10">
+        <v>97.530900000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.125</v>
+      </c>
+      <c r="B15">
+        <v>98.876400000000004</v>
+      </c>
+      <c r="C15">
+        <v>97.183099999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>96.875</v>
+      </c>
+      <c r="B17">
+        <v>95.833299999999994</v>
+      </c>
+      <c r="C17">
+        <v>97.7273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>96.875</v>
+      </c>
+      <c r="B19">
+        <v>95.348799999999997</v>
+      </c>
+      <c r="C19">
+        <v>98.648600000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>96.25</v>
+      </c>
+      <c r="B21">
+        <v>97.183099999999996</v>
+      </c>
+      <c r="C21">
+        <v>95.505600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>96.25</v>
+      </c>
+      <c r="B23">
+        <v>98.780500000000004</v>
+      </c>
+      <c r="C23">
+        <v>93.589699999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>95.625</v>
+      </c>
+      <c r="B28">
+        <v>92.405100000000004</v>
+      </c>
+      <c r="C28">
+        <v>98.7654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>97.5</v>
+      </c>
+      <c r="B30">
+        <v>97.647099999999995</v>
+      </c>
+      <c r="C30">
+        <v>97.333299999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>95.625</v>
+      </c>
+      <c r="B32">
+        <v>98.630099999999999</v>
+      </c>
+      <c r="C32">
+        <v>93.103399999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>96.25</v>
+      </c>
+      <c r="B34">
+        <v>97.590400000000002</v>
+      </c>
+      <c r="C34">
+        <v>94.805199999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>96.875</v>
+      </c>
+      <c r="B36">
+        <v>97.5</v>
+      </c>
+      <c r="C36">
+        <v>96.25</v>
       </c>
     </row>
   </sheetData>
@@ -548,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09A6B0D-1150-4794-B607-E0F6EDA67D19}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -567,6 +1392,171 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>93.75</v>
+      </c>
+      <c r="B2">
+        <v>90.804599999999994</v>
+      </c>
+      <c r="C2">
+        <v>97.260300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>97.530900000000003</v>
+      </c>
+      <c r="C4">
+        <v>92.405100000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>93.75</v>
+      </c>
+      <c r="B6">
+        <v>90.909099999999995</v>
+      </c>
+      <c r="C6">
+        <v>97.222200000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>93.75</v>
+      </c>
+      <c r="B8">
+        <v>91.780799999999999</v>
+      </c>
+      <c r="C8">
+        <v>95.402299999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>95.625</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>92.134799999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>96.25</v>
+      </c>
+      <c r="B15">
+        <v>94.736800000000002</v>
+      </c>
+      <c r="C15">
+        <v>97.619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>94.375</v>
+      </c>
+      <c r="B17">
+        <v>92.682900000000004</v>
+      </c>
+      <c r="C17">
+        <v>96.153800000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>96.875</v>
+      </c>
+      <c r="B19">
+        <v>96.774199999999993</v>
+      </c>
+      <c r="C19">
+        <v>97.014899999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>93.75</v>
+      </c>
+      <c r="B21">
+        <v>96.341499999999996</v>
+      </c>
+      <c r="C21">
+        <v>91.025599999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>94.375</v>
+      </c>
+      <c r="B23">
+        <v>95.522400000000005</v>
+      </c>
+      <c r="C23">
+        <v>93.548400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>96.25</v>
+      </c>
+      <c r="B28">
+        <v>95</v>
+      </c>
+      <c r="C28">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>97.260300000000001</v>
+      </c>
+      <c r="C30">
+        <v>93.103399999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <v>92.941199999999995</v>
+      </c>
+      <c r="C32">
+        <v>97.333299999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>94.375</v>
+      </c>
+      <c r="B34">
+        <v>94.520499999999998</v>
+      </c>
+      <c r="C34">
+        <v>94.252899999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>96.25</v>
+      </c>
+      <c r="B36">
+        <v>97.752799999999993</v>
+      </c>
+      <c r="C36">
+        <v>94.366200000000006</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/结果/DT分类/标准差/DT_CE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_CE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5483B4C-1226-499F-8BC9-D3FED0307D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F085E359-FDCE-4E62-B39B-64057DD61E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8388" yWindow="2748" windowWidth="19668" windowHeight="9708" tabRatio="849" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="CE_biaozhuncha_d3" sheetId="4" r:id="rId4"/>
     <sheet name="CE_biaozhuncha_d4" sheetId="5" r:id="rId5"/>
     <sheet name="CE_biaozhuncha_d5" sheetId="6" r:id="rId6"/>
+    <sheet name="CE_bzc_multi_attri" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1375,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09A6B0D-1150-4794-B607-E0F6EDA67D19}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
@@ -1561,4 +1562,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66052822-1CB3-47C0-BA8B-5ED895DAEFA2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/DT分类/标准差/DT_CE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_CE_biaozhuncha.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F085E359-FDCE-4E62-B39B-64057DD61E3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4443A7-6C15-483E-8BAC-E7B95B7B2629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
@@ -37,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +78,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -94,8 +115,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -594,6 +618,20 @@
       </c>
       <c r="C36">
         <v>96.428600000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>97.75</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>97.758906666666661</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>97.76530666666666</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9319EEC-FC5B-42B7-97A3-3194FA6A3761}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C37"/>
     </sheetView>
   </sheetViews>
@@ -797,10 +835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7F7D7-6C88-456C-AC53-5A54ACE8E261}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -979,6 +1017,20 @@
       </c>
       <c r="C36">
         <v>96.202500000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>95.041666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>94.760900000000007</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>95.408846666666676</v>
       </c>
     </row>
   </sheetData>
@@ -989,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E91D24-0621-4254-96BD-9D175D9C7867}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1171,6 +1223,20 @@
       </c>
       <c r="C36">
         <v>95.833299999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>97.541666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>97.367660000000015</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>97.731073333333342</v>
       </c>
     </row>
   </sheetData>
@@ -1182,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB994B57-1C4E-4D69-B806-02229C37A3D5}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1364,6 +1430,20 @@
       </c>
       <c r="C36">
         <v>96.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>96.625</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>96.927933333333328</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>96.361093333333343</v>
       </c>
     </row>
   </sheetData>
@@ -1374,10 +1454,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09A6B0D-1150-4794-B607-E0F6EDA67D19}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1556,6 +1636,20 @@
       </c>
       <c r="C36">
         <v>94.366200000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>94.958333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>94.970533333333336</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>95.089479999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1566,13 +1660,207 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66052822-1CB3-47C0-BA8B-5ED895DAEFA2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>97.5</v>
+      </c>
+      <c r="B2">
+        <v>98.734200000000001</v>
+      </c>
+      <c r="C2">
+        <v>96.296300000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>98.75</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>97.333299999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>96.875</v>
+      </c>
+      <c r="B6">
+        <v>98.591499999999996</v>
+      </c>
+      <c r="C6">
+        <v>95.505600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>96.875</v>
+      </c>
+      <c r="B8">
+        <v>96.385499999999993</v>
+      </c>
+      <c r="C8">
+        <v>97.402600000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>98.75</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>97.435900000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>97.5</v>
+      </c>
+      <c r="B15">
+        <v>97.297300000000007</v>
+      </c>
+      <c r="C15">
+        <v>97.674400000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>98.75</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>97.222200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>97.5</v>
+      </c>
+      <c r="B19">
+        <v>97.333299999999994</v>
+      </c>
+      <c r="C19">
+        <v>97.647099999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>99.375</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>98.7179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>98.125</v>
+      </c>
+      <c r="B23">
+        <v>97.530900000000003</v>
+      </c>
+      <c r="C23">
+        <v>98.734200000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>98.125</v>
+      </c>
+      <c r="B28">
+        <v>97.435900000000004</v>
+      </c>
+      <c r="C28">
+        <v>98.780500000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>98.125</v>
+      </c>
+      <c r="B30">
+        <v>98.780500000000004</v>
+      </c>
+      <c r="C30">
+        <v>97.435900000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>98.125</v>
+      </c>
+      <c r="B32">
+        <v>97.402600000000007</v>
+      </c>
+      <c r="C32">
+        <v>98.795199999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>97.5</v>
+      </c>
+      <c r="B34">
+        <v>96.470600000000005</v>
+      </c>
+      <c r="C34">
+        <v>98.666700000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>97.5</v>
+      </c>
+      <c r="B36">
+        <v>96.153800000000004</v>
+      </c>
+      <c r="C36">
+        <v>98.780500000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>AVERAGE(A2:A36)</f>
+        <v>97.958333333333329</v>
+      </c>
+      <c r="B37" s="1">
+        <f>AVERAGE(B2:B36)</f>
+        <v>98.141073333333352</v>
+      </c>
+      <c r="C37" s="1">
+        <f>AVERAGE(C2:C36)</f>
+        <v>97.761886666666669</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/DT分类/标准差/DT_CE_biaozhuncha.xlsx
+++ b/结果/DT分类/标准差/DT_CE_biaozhuncha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\DT分类\标准差\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4443A7-6C15-483E-8BAC-E7B95B7B2629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9389D209-716C-4636-9450-5197A1ADB61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="849" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="14112" yWindow="0" windowWidth="13620" windowHeight="12360" tabRatio="849" firstSheet="3" activeTab="6" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_biaozhuncha" sheetId="1" r:id="rId1"/>
@@ -643,10 +643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9319EEC-FC5B-42B7-97A3-3194FA6A3761}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -825,6 +825,20 @@
       </c>
       <c r="C36">
         <v>80.519499999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>84.375</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>85.804760000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>83.167326666666668</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A7F7D7-6C88-456C-AC53-5A54ACE8E261}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1677,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C36"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
